--- a/va_facility_data_2025-02-20/Potsdam VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Potsdam%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Potsdam VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Potsdam%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5a5d0906846243459265a78dbfdc5dbf"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R90f57fd085344d008bf9177e2f4bfa30"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3b6bd8f61926462587f1af3cdfead562"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rafce00b4b3594aca9c136bc400369bbd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra682cfe989cb44aaa6f0272bac3ec83d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1f96fd89fa9a4af48908d9d628f136ae"/>
   </x:sheets>
 </x:workbook>
 </file>
